--- a/xlnt/xlnt/test_save.xlsx
+++ b/xlnt/xlnt/test_save.xlsx
@@ -7,16 +7,43 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>string data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -52,9 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,39 +353,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="C3">
-        <f>RAND()</f>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4"/>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlnt/xlnt/test_save.xlsx
+++ b/xlnt/xlnt/test_save.xlsx
@@ -11,41 +11,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,8 +44,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,323 +326,323 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>9</v>
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/xlnt/xlnt/test_save.xlsx
+++ b/xlnt/xlnt/test_save.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>string data</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,7 +54,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" applyNumberFormat="1"/>
+    <xf numFmtId="9" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,333 +327,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10</v>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10</v>
+    <row r="3" spans="1:3">
+      <c r="C3">
+        <f>RAND()</f>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1">
-        <v>9</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1">
-        <v>9</v>
-      </c>
-      <c r="J8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:3">
+      <c r="C4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>